--- a/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
+++ b/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/reuniões/Organização Equipe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA670B46-C644-4701-8EA0-19B59ACF11DE}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57BC5E9-7463-4371-8238-2FE4B1A66725}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>Matéria</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Neto (PO)</t>
   </si>
   <si>
-    <t>Fábio</t>
-  </si>
-  <si>
     <t>Victor</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Thais</t>
   </si>
   <si>
-    <t>Vinicius (SM)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neto </t>
   </si>
   <si>
@@ -162,6 +156,9 @@
   </si>
   <si>
     <t>Thais (SM)</t>
+  </si>
+  <si>
+    <t>Fábio/Vinicius</t>
   </si>
 </sst>
 </file>
@@ -439,50 +436,50 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,24 +829,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76284797-5698-42CC-AC6E-5DE53A4B9F1B}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="81.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -865,7 +862,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -876,130 +873,128 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>33</v>
+      <c r="C6" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>35</v>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>36</v>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1015,141 +1010,141 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>39</v>
+      <c r="C24" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>35</v>
+      <c r="C30" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>41</v>
+      <c r="C34" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1165,7 +1160,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1174,44 +1169,44 @@
       <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1220,37 +1215,37 @@
       <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="11"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="11"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1259,35 +1254,35 @@
       <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="8"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1303,7 +1298,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1312,44 +1307,44 @@
       <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="11"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="15"/>
     </row>
     <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="11"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="7"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="19"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1358,37 +1353,37 @@
       <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="11"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="11"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="17"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="19"/>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -1397,30 +1392,74 @@
       <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="8"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="A63:A65"/>
@@ -1429,50 +1468,6 @@
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
+++ b/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/reuniões/Organização Equipe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Hugo\Desktop\GITHUB\S2\Documentacao\reuniões\Organização Equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57BC5E9-7463-4371-8238-2FE4B1A66725}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658D834-8F00-435C-BBF7-92485A838824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planejamento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -221,12 +221,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF7DFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -234,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0C8EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,36 +427,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,20 +463,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,28 +829,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76284797-5698-42CC-AC6E-5DE53A4B9F1B}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,144 +861,144 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,146 +1009,146 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,134 +1159,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="13"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="17"/>
-    </row>
-    <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="18" t="s">
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
       <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16"/>
       <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="C53" s="18"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="20"/>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -1297,165 +1297,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="13"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="13"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C61" s="14"/>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="17"/>
-    </row>
-    <row r="63" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="13" t="s">
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="13"/>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="15"/>
-    </row>
-    <row r="65" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="13"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="18" t="s">
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="10"/>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
       <c r="B71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="A60:A62"/>
@@ -1468,6 +1428,46 @@
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
+++ b/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/reuniões/Organização Equipe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E57BC5E9-7463-4371-8238-2FE4B1A66725}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FA8C73-2B90-46F7-8DBF-479B63708F29}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>Matéria</t>
   </si>
@@ -146,19 +146,16 @@
     <t>Thais</t>
   </si>
   <si>
-    <t xml:space="preserve">Neto </t>
-  </si>
-  <si>
-    <t>Fábio (PO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinicius </t>
-  </si>
-  <si>
     <t>Thais (SM)</t>
   </si>
   <si>
     <t>Fábio/Vinicius</t>
+  </si>
+  <si>
+    <t>Neto/Vinicius/Macari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fábio </t>
   </si>
 </sst>
 </file>
@@ -442,43 +439,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,6 +505,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76284797-5698-42CC-AC6E-5DE53A4B9F1B}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,10 +843,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
@@ -862,138 +863,138 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>40</v>
+      <c r="C6" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1010,140 +1011,136 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>36</v>
+      <c r="C21" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>37</v>
+      <c r="C24" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>39</v>
+      <c r="C34" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
@@ -1160,128 +1157,128 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="16"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="9"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="52" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="11"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="10"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="12"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="7" t="s">
         <v>31</v>
       </c>
@@ -1298,164 +1295,124 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="13"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="13"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="16"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="11"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="9"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="13"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="13"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="16"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="11"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="18"/>
     </row>
     <row r="68" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="16"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="11"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="10"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="12"/>
+      <c r="C71" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="A60:A62"/>
@@ -1468,6 +1425,46 @@
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
+++ b/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/reuniões/Organização Equipe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OrchisSystems\Documentacao\reuniões\Organização Equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{110DEF74-2206-4B74-9843-DF1037194BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FA8C73-2B90-46F7-8DBF-479B63708F29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EB3D9-D4AD-4393-BD0B-9BF77099B26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t>Matéria</t>
   </si>
@@ -152,10 +152,25 @@
     <t>Fábio/Vinicius</t>
   </si>
   <si>
-    <t>Neto/Vinicius/Macari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fábio </t>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Fabio(PO)</t>
+  </si>
+  <si>
+    <t>Responsável Semanal</t>
+  </si>
+  <si>
+    <t>Responsável Pai</t>
+  </si>
+  <si>
+    <t>Vinicius/Neto</t>
+  </si>
+  <si>
+    <t>Thais(SM)</t>
   </si>
 </sst>
 </file>
@@ -505,10 +520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,18 +839,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76284797-5698-42CC-AC6E-5DE53A4B9F1B}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="81.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -982,24 +993,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -1018,24 +1033,29 @@
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -1043,24 +1063,29 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>11</v>
       </c>
@@ -1068,56 +1093,71 @@
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C30" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A33" s="20"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>21</v>
       </c>
@@ -1127,25 +1167,30 @@
       <c r="C34" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D34" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,137 +1198,168 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A43" s="12"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="17"/>
-    </row>
-    <row r="44" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A44" s="12"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C48" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A49" s="12"/>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18"/>
-    </row>
-    <row r="50" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C50" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A51" s="20"/>
       <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="19"/>
       <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -1291,128 +1367,176 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C57" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A61" s="12"/>
       <c r="B61" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A62" s="12"/>
       <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="18"/>
-    </row>
-    <row r="63" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C66" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A67" s="12"/>
       <c r="B67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A68" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C68" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A69" s="20"/>
       <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="15"/>
-    </row>
-    <row r="70" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A70" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="1:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="73">
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="A60:A62"/>
@@ -1452,6 +1576,9 @@
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>

--- a/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
+++ b/reuniões/Organização Equipe/Entregáveis_Sprint2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OrchisSystems\Documentacao\reuniões\Organização Equipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EB3D9-D4AD-4393-BD0B-9BF77099B26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640052B5-3B5C-48D3-A8F2-9DBAB403C26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2412B9C1-AE0B-4B06-99AA-23008C715C69}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>Matéria</t>
   </si>
@@ -171,13 +171,25 @@
   </si>
   <si>
     <t>Thais(SM)</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Victor(PO)</t>
+  </si>
+  <si>
+    <t>Macari(SM)</t>
+  </si>
+  <si>
+    <t>Foi definido para a proxima sprint a finalização da planilha de riscos e duas páginas do site institucional(sobre nós e soluções), adição dos dados dos sensores no banco de dados na máquina virtual, documentação finalizada, prototipação da dashboard.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +225,13 @@
       <b/>
       <sz val="14.5"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -454,44 +473,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76284797-5698-42CC-AC6E-5DE53A4B9F1B}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="A37:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,10 +876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
@@ -874,7 +896,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -885,46 +907,46 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -935,39 +957,39 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -976,40 +998,40 @@
       <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
@@ -1026,7 +1048,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1040,7 +1062,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1070,7 @@
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
@@ -1056,37 +1078,37 @@
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1100,7 +1122,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1130,7 @@
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
@@ -1116,29 +1138,29 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1150,7 +1172,7 @@
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
@@ -1158,37 +1180,37 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
@@ -1205,19 +1227,21 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1249,7 @@
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="11"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
@@ -1233,35 +1257,37 @@
       <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="16"/>
+      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1270,10 +1296,12 @@
       <c r="C45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A46" s="11"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1309,7 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A47" s="11"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1289,27 +1317,29 @@
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="16"/>
+      <c r="C48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1318,10 +1348,12 @@
       <c r="C50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
@@ -1329,248 +1361,223 @@
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="16"/>
+      <c r="C52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:4" ht="84" x14ac:dyDescent="0.4">
+      <c r="B55" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
+    <row r="60" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A60" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="13"/>
-    </row>
-    <row r="58" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="4" t="s">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A59" s="11"/>
-      <c r="B59" s="4" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A62" s="18"/>
+      <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A60" s="12" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A63" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="5" t="s">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A62" s="12"/>
-      <c r="B62" s="5" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A65" s="19"/>
+      <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A63" s="11" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A66" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A64" s="11"/>
-      <c r="B64" s="4" t="s">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="4" t="s">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A66" s="12" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A69" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A67" s="12"/>
-      <c r="B67" s="5" t="s">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A70" s="19"/>
+      <c r="B70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-    </row>
-    <row r="68" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A68" s="20" t="s">
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A71" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A69" s="20"/>
-      <c r="B69" s="4" t="s">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A72" s="21"/>
+      <c r="B72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
-      <c r="A70" s="12" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" ht="38.4" x14ac:dyDescent="0.4">
+      <c r="A73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="19"/>
-      <c r="B71" s="6" t="s">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="20"/>
+      <c r="B74" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="C21:C23"/>
@@ -1579,19 +1586,58 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
